--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 7,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 11,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 5,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; 12,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 14,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 20,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 8,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 30,41</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 0,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 12,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 20,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 8,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,76; 1,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 10,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 5,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,77; 10,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 16,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 7,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 7,12</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 4,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 15,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 18,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 7,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,54; 22,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 9,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 40,5</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 12,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 15,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 7,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 7,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 18,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,36; 26,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 10,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 12,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 5,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 7,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 11,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 5,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 7,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 10,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 14,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 8,34</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 9,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 7,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,96; 13,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 12,33</t>
+          <t>-10,04; 12,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 30,41</t>
+          <t>-19,83; 33,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-20,25%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,82</t>
+          <t>-29,92; -0,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 1,3</t>
+          <t>-49,07; -2,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-1,16%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 4,23</t>
+          <t>-6,16; 4,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 7,12</t>
+          <t>-9,6; 8,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>37,81%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 18,84</t>
+          <t>-2,98; 40,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 40,5</t>
+          <t>-4,8; 186,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,99</t>
+          <t>-1,17; 8,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 12,11</t>
+          <t>-1,7; 13,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>-1,01%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,81</t>
+          <t>-5,85; 7,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,32</t>
+          <t>-3,55; 10,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 11,16</t>
+          <t>5,13; 16,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 5,54</t>
+          <t>-5,87; 5,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 7,83</t>
+          <t>-7,04; 10,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 10,11</t>
+          <t>-4,67; 14,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 14,14</t>
+          <t>6,36; 22,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,34</t>
+          <t>-8,56; 8,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,44; 9,54</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 9,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 8,45</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 9,89</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 12,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 13,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 10,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 14,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,62; 5,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,74; 9,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,26; 4,93</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 5,07</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 17,39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,91; 7,74</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,96; 13,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,57; 6,35</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 8,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 39,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 7,86</t>
+          <t>-4,01; 8,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 11,3</t>
+          <t>-1,44; 11,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 5,94</t>
+          <t>-5,92; 5,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 12,26</t>
+          <t>-10,24; 12,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 14,18</t>
+          <t>-6,41; 15,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 20,88</t>
+          <t>-2,31; 22,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 8,42</t>
+          <t>-7,64; 8,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 33,61</t>
+          <t>-21,06; 32,01</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,78</t>
+          <t>-2,48; 8,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 12,17</t>
+          <t>1,08; 12,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,54</t>
+          <t>-3,87; 5,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,92; -0,98</t>
+          <t>-31,8; -1,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 12,69</t>
+          <t>-3,9; 14,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 20,1</t>
+          <t>1,59; 20,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,83</t>
+          <t>-4,87; 7,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,07; -2,37</t>
+          <t>-50,92; -2,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 6,77</t>
+          <t>-3,97; 5,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,94</t>
+          <t>1,11; 11,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,95</t>
+          <t>-2,97; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,81</t>
+          <t>-6,53; 5,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 10,3</t>
+          <t>-5,64; 8,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 16,84</t>
+          <t>1,55; 17,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 7,88</t>
+          <t>-3,67; 8,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 8,24</t>
+          <t>-10,35; 8,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 4,81</t>
+          <t>-6,54; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 15,06</t>
+          <t>4,76; 15,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,58</t>
+          <t>-1,49; 6,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 40,25</t>
+          <t>-2,89; 42,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 7,16</t>
+          <t>-8,77; 6,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 22,9</t>
+          <t>6,82; 23,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,75</t>
+          <t>-1,79; 8,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 186,26</t>
+          <t>-4,49; 194,43</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,18</t>
+          <t>-0,0; 12,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,78</t>
+          <t>2,74; 15,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,9</t>
+          <t>-2,54; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,47</t>
+          <t>-1,7; 7,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 18,2</t>
+          <t>0,01; 18,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 26,03</t>
+          <t>4,06; 25,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 10,22</t>
+          <t>-2,99; 10,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 13,07</t>
+          <t>-2,35; 12,16</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,42</t>
+          <t>-5,84; 7,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 10,2</t>
+          <t>-4,04; 9,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 16,47</t>
+          <t>5,2; 16,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 5,13</t>
+          <t>-5,63; 4,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,33</t>
+          <t>-7,28; 9,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 14,18</t>
+          <t>-5,07; 13,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 22,41</t>
+          <t>6,39; 21,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 8,07</t>
+          <t>-8,19; 7,53</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 9,54</t>
+          <t>-5,3; 8,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 9,44</t>
+          <t>-5,22; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 8,45</t>
+          <t>-2,43; 8,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,89</t>
+          <t>-1,38; 9,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 12,82</t>
+          <t>-6,24; 11,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 13,63</t>
+          <t>-6,47; 13,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 10,56</t>
+          <t>-2,79; 10,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 14,75</t>
+          <t>-1,86; 13,6</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,18</t>
+          <t>0,64; 5,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,0</t>
+          <t>4,53; 8,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,93</t>
+          <t>1,17; 4,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 17,39</t>
+          <t>-1,68; 16,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,74</t>
+          <t>0,92; 7,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,68</t>
+          <t>6,72; 13,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,35</t>
+          <t>1,49; 6,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 39,49</t>
+          <t>-2,73; 37,78</t>
         </is>
       </c>
     </row>
